--- a/bin/urls_alone.xlsx
+++ b/bin/urls_alone.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>业务名称</t>
   </si>
@@ -71,7 +71,7 @@
     <t>当前线程数</t>
   </si>
   <si>
-    <t>10.1.11.51 10.1.11.52</t>
+    <t>10.1.11.51:8080 10.1.11.52:8080</t>
   </si>
   <si>
     <t>bike-car</t>
@@ -83,7 +83,87 @@
     <t>操作成功</t>
   </si>
   <si>
-    <t>10.1.11.26:8080 10.1.11.141 10.1.11.162 10.1.11.218 10.1.11.219</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.26:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.141</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.218</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
   </si>
   <si>
     <r>
@@ -115,7 +195,96 @@
     <t>http://me.baojia.com/bike/get/joinProduct?joinYear=1</t>
   </si>
   <si>
-    <t>10.1.11.27 10.1.11.142 10.1.11.164 10.1.11.222 10.1.11.223</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
   </si>
   <si>
     <t>bike-user</t>
@@ -124,7 +293,7 @@
     <t>https://me.baojia.com/bike/about/us?appFrom=1</t>
   </si>
   <si>
-    <t>10.1.11.28 10.1.11.143 10.1.11.163 10.1.11.178 10.1.11.179</t>
+    <t>10.1.11.28:8080 10.1.11.143:8080 10.1.11.163:8080 10.1.11.178:8080 10.1.11.179:8080</t>
   </si>
   <si>
     <t>换电柜(change-battery的server)</t>
@@ -133,7 +302,7 @@
     <t>server   https://bat.baojia.com/content/index</t>
   </si>
   <si>
-    <t>10.1.11.32</t>
+    <t>10.1.11.32:8080</t>
   </si>
   <si>
     <t>换电柜(change-battery、后台)</t>
@@ -142,13 +311,16 @@
     <t>http://www.ht.meboth.com/backstage-cupboard-api/sys/index</t>
   </si>
   <si>
+    <t>10.1.11.32.:8092</t>
+  </si>
+  <si>
     <t>换电柜网关系统io、cloud</t>
   </si>
   <si>
     <t>211.151.2.246:38026</t>
   </si>
   <si>
-    <t>10.1.11.236 10.1.11.237</t>
+    <t>10.1.11.236:8109 10.1.11.237:8109</t>
   </si>
   <si>
     <t>换电运维监控(换电掌柜)</t>
@@ -157,7 +329,24 @@
     <t>https://batops.baojia.com/operation/battery/model/list</t>
   </si>
   <si>
-    <t>10.1.11.213</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8075</t>
+    </r>
   </si>
   <si>
     <t>OAhrms后端服务</t>
@@ -166,7 +355,42 @@
     <t>http://hrms.meboth.com/hrms-api/position/getPositionNameList</t>
   </si>
   <si>
-    <t>10.1.11.54 10.1.11.55</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8891</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8891</t>
+    </r>
   </si>
   <si>
     <t>pmall线上</t>
@@ -175,7 +399,33 @@
     <t>http://me.baojia.com/pmall/allProduct</t>
   </si>
   <si>
-    <t>10.1.11.230 10.1.11.232</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.230:8091</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8091</t>
+    </r>
   </si>
   <si>
     <t>sentinel-dashboard平台监控</t>
@@ -187,7 +437,24 @@
     <t>Sentinel Dashboard</t>
   </si>
   <si>
-    <t>10.1.11.31</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8080</t>
+    </r>
   </si>
   <si>
     <t>sms(短信系统后台)</t>
@@ -199,7 +466,33 @@
     <t>Bad Request</t>
   </si>
   <si>
-    <t>10.1.11.21 10.1.11.129</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.21:8110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.129</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8110</t>
+    </r>
   </si>
   <si>
     <t>web前端 计价规则</t>
@@ -211,7 +504,7 @@
     <t>计价规则</t>
   </si>
   <si>
-    <t>10.1.11.24 10.1.11.124</t>
+    <t>10.1.11.24:8060</t>
   </si>
   <si>
     <t>web前端 蜜步换电官网</t>
@@ -223,6 +516,9 @@
     <t>蜜步换电官网</t>
   </si>
   <si>
+    <t>10.1.11.124:8060</t>
+  </si>
+  <si>
     <t>风控系统rcs</t>
   </si>
   <si>
@@ -232,7 +528,7 @@
     <t>测试成功</t>
   </si>
   <si>
-    <t>10.1.11.56</t>
+    <t>10.1.11.56:8071</t>
   </si>
   <si>
     <t xml:space="preserve">风控系统ibs后台 </t>
@@ -241,6 +537,9 @@
     <t>ibs   http://ibs.baojia.com/ibs/api/brandlist?token=111111</t>
   </si>
   <si>
+    <t>10.1.11.16:8070</t>
+  </si>
+  <si>
     <t>后台配置中心</t>
   </si>
   <si>
@@ -250,7 +549,7 @@
     <t>Apollo配置中心</t>
   </si>
   <si>
-    <t>10.1.11.16</t>
+    <t>10.1.11.23:7001</t>
   </si>
   <si>
     <t>控制台dubbo</t>
@@ -262,7 +561,27 @@
     <t>No message available</t>
   </si>
   <si>
-    <t>10.1.11.23</t>
+    <r>
+      <t>10.1.11.98:8099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.99:8099</t>
+    </r>
   </si>
   <si>
     <t>密步后台权限系统</t>
@@ -274,7 +593,7 @@
     <t>Method Not Allowed</t>
   </si>
   <si>
-    <t>10.1.11.98 10.1.11.99</t>
+    <t>10.1.11.215:8818</t>
   </si>
   <si>
     <t>蜜步新官网（后台程序）</t>
@@ -286,7 +605,27 @@
     <t>未登陆</t>
   </si>
   <si>
-    <t>10.1.11.215</t>
+    <r>
+      <t>10.1.11.144:8190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.176:8190</t>
+    </r>
   </si>
   <si>
     <t>蜜步新官网（data-job）</t>
@@ -295,19 +634,62 @@
     <t>data-job   http://10.1.11.215:8818/data-job/</t>
   </si>
   <si>
+    <r>
+      <t>10.1.11.145:8091</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.177:8091</t>
+    </r>
+  </si>
+  <si>
     <t>蜜步运营平台adminservcie</t>
   </si>
   <si>
     <t>http://cms.baojia.com/backstage-api/bike/getColorList</t>
   </si>
   <si>
-    <t>10.1.11.144 10.1.11.176</t>
+    <t>10.1.11.175:8092</t>
   </si>
   <si>
     <t>蜜步运营平台api</t>
   </si>
   <si>
-    <t>10.1.11.145 10.1.11.177</t>
+    <r>
+      <t>10.1.11.58:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.217:8080</t>
+    </r>
   </si>
   <si>
     <t>蜜步运营平台企业后台</t>
@@ -319,7 +701,45 @@
     <t>网络异常</t>
   </si>
   <si>
-    <t>10.1.11.175</t>
+    <r>
+      <t>10.1.11.210:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.211:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.212:8080</t>
+    </r>
   </si>
   <si>
     <t>蜜蜂电池分发存储80</t>
@@ -331,14 +751,38 @@
     <t>python判断返回的任一字段值</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.1.11.58</t>
+    <t>10.1.11.72:8091</t>
+  </si>
+  <si>
+    <t>蜜蜂电池分发存储81</t>
+  </si>
+  <si>
+    <t>http://10.1.11.27:8081/nodeInf</t>
+  </si>
+  <si>
+    <t>是否为空</t>
+  </si>
+  <si>
+    <t>10.1.11.216:8077</t>
+  </si>
+  <si>
+    <t>蜜蜂分发存储</t>
+  </si>
+  <si>
+    <t>http://10.1.11.210:8080/info</t>
+  </si>
+  <si>
+    <t>activeCount</t>
+  </si>
+  <si>
+    <t>蜜蜂加盟项目bike-extend</t>
+  </si>
+  <si>
+    <t>http://me.baojia.com/join/get/joinProduct</t>
+  </si>
+  <si>
+    <r>
+      <t>10.1.11.90:8791</t>
     </r>
     <r>
       <rPr>
@@ -356,41 +800,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.217</t>
-    </r>
-  </si>
-  <si>
-    <t>蜜蜂电池分发存储81</t>
-  </si>
-  <si>
-    <t>http://10.1.11.27:8081/nodeInf</t>
-  </si>
-  <si>
-    <t>是否为空</t>
-  </si>
-  <si>
-    <t>10.1.11.58 10.1.11.217</t>
-  </si>
-  <si>
-    <t>蜜蜂分发存储</t>
-  </si>
-  <si>
-    <t>http://10.1.11.210:8080/info</t>
-  </si>
-  <si>
-    <t>activeCount</t>
-  </si>
-  <si>
-    <t>10.1.11.210 10.1.11.211 10.1.11.212</t>
-  </si>
-  <si>
-    <t>蜜蜂加盟项目bike-extend</t>
-  </si>
-  <si>
-    <t>http://me.baojia.com/join/get/joinProduct</t>
-  </si>
-  <si>
-    <t>10.1.11.72</t>
+      <t>10.1.11.91:8791</t>
+    </r>
   </si>
   <si>
     <t>微信后台程序</t>
@@ -402,7 +813,7 @@
     <t>运营人员绑定</t>
   </si>
   <si>
-    <t>10.1.11.216</t>
+    <t>10.1.11.160:8081</t>
   </si>
   <si>
     <t>违章task 查询后台定时任务</t>
@@ -414,9 +825,6 @@
     <t>RentOrderIllegalDataflowJob</t>
   </si>
   <si>
-    <t>10.1.11.166</t>
-  </si>
-  <si>
     <t>物料进销存系统</t>
   </si>
   <si>
@@ -426,7 +834,42 @@
     <t>请传入文件小于2M</t>
   </si>
   <si>
-    <t>10.1.11.90 10.1.11.91</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8791</t>
+    </r>
   </si>
   <si>
     <t>小蜜app_cat监控程序</t>
@@ -438,16 +881,159 @@
     <t>CAT</t>
   </si>
   <si>
-    <t>10.1.11.160</t>
-  </si>
-  <si>
     <t>小蜜分发存储</t>
   </si>
   <si>
     <t>http://distribute.baojia.com/info</t>
   </si>
   <si>
-    <t>10.1.11.105 10.1.11.106 10.1.11.113 10.1.11.107 10.1.11.108 10.1.11.109 10.1.11.161 10.1.11.172 10.1.11.112</t>
+    <r>
+      <t>10.1.11.105:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.106:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.113:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.107:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.108:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.109:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.161:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.172:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.112:8080</t>
+    </r>
   </si>
   <si>
     <t>新版宝驾掌柜接口后台</t>
@@ -456,7 +1042,45 @@
     <t>http://zg.baojia.com/api/get/city/all</t>
   </si>
   <si>
-    <t>10.1.11.22 10.1.11.133 10.1.11.123</t>
+    <r>
+      <t>10.1.11.22:8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.133:8888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.123:8888</t>
+    </r>
   </si>
   <si>
     <t>征信系统</t>
@@ -465,7 +1089,7 @@
     <t>http://creditcrc.baojia.com/crc/verifyIdCardInfo</t>
   </si>
   <si>
-    <t>10.1.11.126 10.1.11.174</t>
+    <t>10.1.11.126:8090 10.1.11.174:8090</t>
   </si>
   <si>
     <t>监控墙</t>
@@ -477,6 +1101,9 @@
     <t>成功</t>
   </si>
   <si>
+    <t>10.1.11.126:8086 10.1.11.174:8086</t>
+  </si>
+  <si>
     <t>fragment</t>
   </si>
   <si>
@@ -486,7 +1113,27 @@
     <t>success</t>
   </si>
   <si>
-    <t>47.94.83.50 123.56.3.193</t>
+    <r>
+      <t>47.94.83.50:58787</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>123.56.3.193:58787</t>
+    </r>
   </si>
   <si>
     <t>小蜜网关</t>
@@ -495,8 +1142,18 @@
     <t>47.95.64.117</t>
   </si>
   <si>
-    <t>47.95.229.74 47.95.233.109 47.93.233.156 47.95.208.22 39.97.116.162
-47.95.141.193</t>
+    <r>
+      <t>47.95.229.74:8107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 47.95.233.109:8107 47.93.233.156:8107 47.95.208.22:8107 39.97.116.162:8107 47.95.141.193:8107</t>
+    </r>
   </si>
   <si>
     <t>蜜蜂网关</t>
@@ -505,7 +1162,45 @@
     <t>47.95.170.94:8677</t>
   </si>
   <si>
-    <t>39.105.101.223 39.105.102.46 39.106.189.72</t>
+    <r>
+      <t>39.105.101.223:8677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.105.102.46:8677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.106.189.72:8677</t>
+    </r>
   </si>
   <si>
     <t>蜜蜂电池网关</t>
@@ -514,7 +1209,27 @@
     <t>47.95.69.153:8678</t>
   </si>
   <si>
-    <t>47.94.14.14 47.94.147.183</t>
+    <r>
+      <t>47.94.14.14:8678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47.94.147.183:8678</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -530,7 +1245,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +1300,19 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,12 +1441,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1054,152 +1776,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,9 +1950,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,32 +1965,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1622,8 +2364,8 @@
   <sheetPr/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1699,7 +2441,7 @@
       <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1712,7 +2454,7 @@
       <c r="D5" s="6">
         <v>200</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1729,7 +2471,7 @@
       <c r="D6" s="6">
         <v>200</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1737,7 +2479,7 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1746,7 +2488,7 @@
       <c r="D7" s="6">
         <v>200</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1763,7 +2505,7 @@
       <c r="D8" s="9">
         <v>200</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1780,16 +2522,16 @@
       <c r="D9" s="9">
         <v>200</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>27</v>
+      <c r="E9" s="26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>1341</v>
@@ -1798,32 +2540,32 @@
         <v>200</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
-        <v>200</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
+      <c r="D11" s="13">
+        <v>200</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -1831,16 +2573,16 @@
       <c r="D12" s="6">
         <v>200</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
+      <c r="E12" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="13" t="s">
         <v>40</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -1848,101 +2590,101 @@
       <c r="D13" s="6">
         <v>200</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
+      <c r="E13" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6">
         <v>200</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
+      <c r="E14" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6">
         <v>400</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
+      <c r="E15" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6">
         <v>200</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6">
         <v>200</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6">
         <v>200</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>60</v>
+      <c r="E18" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>15</v>
@@ -1950,116 +2692,116 @@
       <c r="D19" s="6">
         <v>200</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>60</v>
+      <c r="E19" s="28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6">
         <v>200</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>66</v>
+      <c r="E20" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D21" s="6">
         <v>401</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
+      <c r="E21" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="6">
         <v>405</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>74</v>
+      <c r="E22" s="29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D23" s="6">
         <v>200</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>78</v>
+      <c r="E23" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="6">
         <v>404</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>78</v>
+      <c r="E24" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6">
         <v>200</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
+      <c r="E25" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>15</v>
@@ -2067,84 +2809,84 @@
       <c r="D26" s="6">
         <v>200</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>85</v>
+      <c r="E26" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D27" s="6">
         <v>200</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
+      <c r="E27" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:5">
-      <c r="A28" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="18">
-        <v>200</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>93</v>
+      <c r="A28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="19">
+        <v>200</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="6">
         <v>200</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>97</v>
+      <c r="E29" s="28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D30" s="6">
         <v>200</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>101</v>
+      <c r="E30" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -2152,101 +2894,101 @@
       <c r="D31" s="6">
         <v>200</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>104</v>
+      <c r="E31" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D32" s="6">
         <v>200</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:5">
+      <c r="E32" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" ht="34" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D33" s="6">
         <v>200</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="20" t="s">
         <v>115</v>
       </c>
+      <c r="B34" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="D34" s="6">
         <v>200</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>116</v>
+      <c r="E34" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6">
         <v>200</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>120</v>
+      <c r="E35" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="34" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D36" s="6">
         <v>200</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>123</v>
+      <c r="E36" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
@@ -2254,315 +2996,315 @@
       <c r="D37" s="6">
         <v>200</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>126</v>
+      <c r="E37" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="21" t="s">
         <v>128</v>
       </c>
+      <c r="B38" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6">
         <v>405</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="22" t="s">
         <v>131</v>
       </c>
+      <c r="B39" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D39" s="6">
         <v>200</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" ht="34" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D40" s="9">
         <v>200</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>136</v>
+      <c r="E40" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="41" ht="34" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="23">
+        <v>140</v>
+      </c>
+      <c r="C41" s="24">
         <v>1341</v>
       </c>
       <c r="D41" s="9">
         <v>200</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>139</v>
+      <c r="E41" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>69</v>
+        <v>143</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="9">
         <v>404</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>142</v>
+      <c r="E42" s="28" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>69</v>
+        <v>146</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="D43" s="9">
         <v>404</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>145</v>
+      <c r="E43" s="28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2579,17 +3321,25 @@
     <hyperlink ref="B21" r:id="rId6" display="http://10.1.11.23:7001" tooltip="http://10.1.11.23:7001"/>
     <hyperlink ref="B22" r:id="rId7" display="http://dl.baojia.com/auth-api/sys/login"/>
     <hyperlink ref="B13" r:id="rId8" display="http://me.baojia.com/pmall/allProduct"/>
-    <hyperlink ref="B28" r:id="rId9" display="http://10.1.11.58:8080/nodeInf"/>
-    <hyperlink ref="B29" r:id="rId10" display="http://10.1.11.27:8081/nodeInf"/>
+    <hyperlink ref="B28" r:id="rId9" display="http://10.1.11.58:8080/nodeInf" tooltip="http://10.1.11.58:8080/nodeInf"/>
+    <hyperlink ref="B29" r:id="rId10" display="http://10.1.11.27:8081/nodeInf" tooltip="http://10.1.11.27:8081/nodeInf"/>
     <hyperlink ref="B39" r:id="rId11" display="http://jk.baojia.com/monitor/bike/getBrandList" tooltip="http://jk.baojia.com/monitor/bike/getBrandList"/>
     <hyperlink ref="B38" r:id="rId12" display="http://creditcrc.baojia.com/crc/verifyIdCardInfo"/>
-    <hyperlink ref="B9" r:id="rId13" display="http://www.ht.meboth.com/backstage-cupboard-api/sys/index"/>
+    <hyperlink ref="B9" r:id="rId13" display="http://www.ht.meboth.com/backstage-cupboard-api/sys/index" tooltip="http://www.ht.meboth.com/backstage-cupboard-api/sys/index"/>
     <hyperlink ref="B16" r:id="rId14" display="http://static.meboth.cn/xiaomi/metripapp/20180913/rule.html" tooltip="http://static.meboth.cn/xiaomi/metripapp/20180913/rule.html"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://www.hd.meboth.com"/>
+    <hyperlink ref="B17" r:id="rId15" display="http://www.hd.meboth.com" tooltip="http://www.hd.meboth.com"/>
     <hyperlink ref="B20" r:id="rId16" display="http://10.1.11.16:8070/signin" tooltip="http://10.1.11.16:8070/signin"/>
     <hyperlink ref="B27" r:id="rId17" display="http://rider.baojia.com/backstage-company-api/companyusers/list"/>
     <hyperlink ref="B4" r:id="rId18" display="http://me.baojia.com/bike/search/adCode?latitude=39&amp;longitude=116" tooltip="http://me.baojia.com/bike/search/adCode?latitude=39&amp;longitude=116"/>
-    <hyperlink ref="B6" r:id="rId19" display="http://me.baojia.com/bike/get/joinProduct?joinYear=1"/>
+    <hyperlink ref="B6" r:id="rId19" display="http://me.baojia.com/bike/get/joinProduct?joinYear=1" tooltip="http://me.baojia.com/bike/get/joinProduct?joinYear=1"/>
+    <hyperlink ref="B15" r:id="rId20" display="http://duanxin.baojia.com/sms/sendMsg"/>
+    <hyperlink ref="B7" r:id="rId21" display="https://me.baojia.com/bike/about/us?appFrom=1" tooltip="https://me.baojia.com/bike/about/us?appFrom=1"/>
+    <hyperlink ref="B36" r:id="rId22" display="http://distribute.baojia.com/info"/>
+    <hyperlink ref="B11" r:id="rId23" display="https://batops.baojia.com/operation/battery/model/list"/>
+    <hyperlink ref="B12" r:id="rId24" display="http://hrms.meboth.com/hrms-api/position/getPositionNameList"/>
+    <hyperlink ref="B33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
+    <hyperlink ref="E33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
+    <hyperlink ref="E30" r:id="rId4" display="http://10.1.11.210:8080/info"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/bin/urls_alone.xlsx
+++ b/bin/urls_alone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16480"/>
+    <workbookView windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>业务名称</t>
   </si>
@@ -83,87 +83,7 @@
     <t>操作成功</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.1.11.26:8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10.1.11.141</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10.1.11.162</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10.1.11.218</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10.1.11.219</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8080</t>
-    </r>
+    <t>10.1.11.26:8080 10.1.11.141:8080 10.1.11.162:8080 10.1.11.218:8080 10.1.11.219:8080</t>
   </si>
   <si>
     <r>
@@ -562,6 +482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.1.11.98:8099</t>
     </r>
     <r>
@@ -606,6 +532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.1.11.144:8190</t>
     </r>
     <r>
@@ -644,6 +576,61 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> 10.1.11.177:8091</t>
+    </r>
+  </si>
+  <si>
+    <t>蜜步运营平台adminservcie</t>
+  </si>
+  <si>
+    <t>http://cms.baojia.com/backstage-api/bike/getColorList</t>
+  </si>
+  <si>
+    <t>10.1.11.175:8092</t>
+  </si>
+  <si>
+    <t>蜜步运营平台api</t>
+  </si>
+  <si>
+    <r>
+      <t>10.1.11.58:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.217:8080</t>
+    </r>
+  </si>
+  <si>
+    <t>蜜步运营平台企业后台</t>
+  </si>
+  <si>
+    <t>http://rider.baojia.com/backstage-company-api/companyusers/list</t>
+  </si>
+  <si>
+    <t>网络异常</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.210:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -653,24 +640,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.177:8091</t>
-    </r>
-  </si>
-  <si>
-    <t>蜜步运营平台adminservcie</t>
-  </si>
-  <si>
-    <t>http://cms.baojia.com/backstage-api/bike/getColorList</t>
-  </si>
-  <si>
-    <t>10.1.11.175:8092</t>
-  </si>
-  <si>
-    <t>蜜步运营平台api</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1.11.58:8080</t>
+      <t>10.1.11.211:8080</t>
     </r>
     <r>
       <rPr>
@@ -688,21 +658,157 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.217:8080</t>
-    </r>
-  </si>
-  <si>
-    <t>蜜步运营平台企业后台</t>
-  </si>
-  <si>
-    <t>http://rider.baojia.com/backstage-company-api/companyusers/list</t>
-  </si>
-  <si>
-    <t>网络异常</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1.11.210:8080</t>
+      <t>10.1.11.212:8080</t>
+    </r>
+  </si>
+  <si>
+    <t>蜜蜂电池分发存储80</t>
+  </si>
+  <si>
+    <t>http://10.1.11.58:8080/nodeInf</t>
+  </si>
+  <si>
+    <t>python判断返回的任一字段值</t>
+  </si>
+  <si>
+    <t>10.1.11.72:8091</t>
+  </si>
+  <si>
+    <t>蜜蜂电池分发存储81</t>
+  </si>
+  <si>
+    <t>http://10.1.11.27:8081/nodeInf</t>
+  </si>
+  <si>
+    <t>是否为空</t>
+  </si>
+  <si>
+    <t>10.1.11.216:8077</t>
+  </si>
+  <si>
+    <t>蜜蜂分发存储</t>
+  </si>
+  <si>
+    <t>http://10.1.11.210:8080/info</t>
+  </si>
+  <si>
+    <t>activeCount</t>
+  </si>
+  <si>
+    <t>蜜蜂加盟项目bike-extend</t>
+  </si>
+  <si>
+    <t>http://me.baojia.com/join/get/joinProduct</t>
+  </si>
+  <si>
+    <r>
+      <t>10.1.11.90:8791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.91:8791</t>
+    </r>
+  </si>
+  <si>
+    <t>微信后台程序</t>
+  </si>
+  <si>
+    <t>http://wechat.baojia.com/zhanggui-java/auth</t>
+  </si>
+  <si>
+    <t>运营人员绑定</t>
+  </si>
+  <si>
+    <t>10.1.11.216:8081</t>
+  </si>
+  <si>
+    <t>违章task 查询后台定时任务</t>
+  </si>
+  <si>
+    <t>http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob</t>
+  </si>
+  <si>
+    <t>RentOrderIllegalDataflowJob</t>
+  </si>
+  <si>
+    <t>物料进销存系统</t>
+  </si>
+  <si>
+    <t>http://pj.baojia.com/bikeparts-api/common/getBikeModelList</t>
+  </si>
+  <si>
+    <t>json操作成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10.1.11.91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:8791</t>
+    </r>
+  </si>
+  <si>
+    <t>小蜜app_cat监控程序</t>
+  </si>
+  <si>
+    <t>http://10.1.11.160:8081/cat/r</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>10.1.11.160:8081</t>
+  </si>
+  <si>
+    <t>小蜜分发存储</t>
+  </si>
+  <si>
+    <t>http://distribute.baojia.com/info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.105:8080</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +826,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.211:8080</t>
+      <t>10.1.11.106:8080</t>
     </r>
     <r>
       <rPr>
@@ -738,51 +844,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.212:8080</t>
-    </r>
-  </si>
-  <si>
-    <t>蜜蜂电池分发存储80</t>
-  </si>
-  <si>
-    <t>http://10.1.11.58:8080/nodeInf</t>
-  </si>
-  <si>
-    <t>python判断返回的任一字段值</t>
-  </si>
-  <si>
-    <t>10.1.11.72:8091</t>
-  </si>
-  <si>
-    <t>蜜蜂电池分发存储81</t>
-  </si>
-  <si>
-    <t>http://10.1.11.27:8081/nodeInf</t>
-  </si>
-  <si>
-    <t>是否为空</t>
-  </si>
-  <si>
-    <t>10.1.11.216:8077</t>
-  </si>
-  <si>
-    <t>蜜蜂分发存储</t>
-  </si>
-  <si>
-    <t>http://10.1.11.210:8080/info</t>
-  </si>
-  <si>
-    <t>activeCount</t>
-  </si>
-  <si>
-    <t>蜜蜂加盟项目bike-extend</t>
-  </si>
-  <si>
-    <t>http://me.baojia.com/join/get/joinProduct</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1.11.90:8791</t>
+      <t>10.1.11.113:8080</t>
     </r>
     <r>
       <rPr>
@@ -800,95 +862,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.91:8791</t>
-    </r>
-  </si>
-  <si>
-    <t>微信后台程序</t>
-  </si>
-  <si>
-    <t>http://wechat.baojia.com/zhanggui-java/auth</t>
-  </si>
-  <si>
-    <t>运营人员绑定</t>
-  </si>
-  <si>
-    <t>10.1.11.160:8081</t>
-  </si>
-  <si>
-    <t>违章task 查询后台定时任务</t>
-  </si>
-  <si>
-    <t>http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob</t>
-  </si>
-  <si>
-    <t>RentOrderIllegalDataflowJob</t>
-  </si>
-  <si>
-    <t>物料进销存系统</t>
-  </si>
-  <si>
-    <t>http://pj.baojia.com/bikeparts-api/sys/menu/listUserMenus</t>
-  </si>
-  <si>
-    <t>请传入文件小于2M</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.1.11.90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8791</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10.1.11.91</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:8791</t>
-    </r>
-  </si>
-  <si>
-    <t>小蜜app_cat监控程序</t>
-  </si>
-  <si>
-    <t>http://10.1.11.160:8081/cat/r</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>小蜜分发存储</t>
-  </si>
-  <si>
-    <t>http://distribute.baojia.com/info</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1.11.105:8080</t>
+      <t>10.1.11.107:8080</t>
     </r>
     <r>
       <rPr>
@@ -906,7 +880,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.106:8080</t>
+      <t>10.1.11.108:8080</t>
     </r>
     <r>
       <rPr>
@@ -924,7 +898,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.113:8080</t>
+      <t>10.1.11.109:8080</t>
     </r>
     <r>
       <rPr>
@@ -942,7 +916,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.107:8080</t>
+      <t>10.1.11.161:8080</t>
     </r>
     <r>
       <rPr>
@@ -960,7 +934,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.108:8080</t>
+      <t>10.1.11.172:8080</t>
     </r>
     <r>
       <rPr>
@@ -978,7 +952,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.109:8080</t>
+      <t>10.1.11.112:8080</t>
+    </r>
+  </si>
+  <si>
+    <t>新版宝驾掌柜接口后台</t>
+  </si>
+  <si>
+    <t>http://zg.baojia.com/api/get/city/all</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.1.11.22:8888</t>
     </r>
     <r>
       <rPr>
@@ -996,7 +987,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.161:8080</t>
+      <t>10.1.11.133:8888</t>
     </r>
     <r>
       <rPr>
@@ -1014,7 +1005,48 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.172:8080</t>
+      <t>10.1.11.123:8888</t>
+    </r>
+  </si>
+  <si>
+    <t>征信系统</t>
+  </si>
+  <si>
+    <t>http://creditcrc.baojia.com/crc/verifyIdCardInfo</t>
+  </si>
+  <si>
+    <t>10.1.11.126:8090 10.1.11.174:8090</t>
+  </si>
+  <si>
+    <t>监控墙</t>
+  </si>
+  <si>
+    <t>http://jk.baojia.com/monitor/bike/getBrandList</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>10.1.11.126:8086 10.1.11.174:8086</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>curl -XPOST -d '{"frm":"tmp","carId":"864376046631916"}' -H "Content-Type:application/json" http://wangguan.baojia.com/appQuery/btMac</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47.94.83.50:58787</t>
     </r>
     <r>
       <rPr>
@@ -1032,18 +1064,50 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.112:8080</t>
-    </r>
-  </si>
-  <si>
-    <t>新版宝驾掌柜接口后台</t>
-  </si>
-  <si>
-    <t>http://zg.baojia.com/api/get/city/all</t>
-  </si>
-  <si>
-    <r>
-      <t>10.1.11.22:8888</t>
+      <t>123.56.3.193:58787</t>
+    </r>
+  </si>
+  <si>
+    <t>小蜜网关</t>
+  </si>
+  <si>
+    <t>47.95.64.117</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47.95.229.74:8107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 47.95.233.109:8107 47.93.233.156:8107 47.95.208.22:8107 39.97.116.162:8107 47.95.141.193:8107</t>
+    </r>
+  </si>
+  <si>
+    <t>蜜蜂网关</t>
+  </si>
+  <si>
+    <t>47.95.170.94:8677</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39.105.101.223:8677</t>
     </r>
     <r>
       <rPr>
@@ -1061,7 +1125,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.133:8888</t>
+      <t>39.105.102.46:8677</t>
     </r>
     <r>
       <rPr>
@@ -1079,126 +1143,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>10.1.11.123:8888</t>
-    </r>
-  </si>
-  <si>
-    <t>征信系统</t>
-  </si>
-  <si>
-    <t>http://creditcrc.baojia.com/crc/verifyIdCardInfo</t>
-  </si>
-  <si>
-    <t>10.1.11.126:8090 10.1.11.174:8090</t>
-  </si>
-  <si>
-    <t>监控墙</t>
-  </si>
-  <si>
-    <t>http://jk.baojia.com/monitor/bike/getBrandList</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>10.1.11.126:8086 10.1.11.174:8086</t>
-  </si>
-  <si>
-    <t>fragment</t>
-  </si>
-  <si>
-    <t>curl -XPOST -d '{"frm":"tmp","carId":"864376046631916"}' -H "Content-Type:application/json" http://wangguan.baojia.com/appQuery/btMac</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <r>
-      <t>47.94.83.50:58787</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>123.56.3.193:58787</t>
-    </r>
-  </si>
-  <si>
-    <t>小蜜网关</t>
-  </si>
-  <si>
-    <t>47.95.64.117</t>
-  </si>
-  <si>
-    <r>
-      <t>47.95.229.74:8107</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 47.95.233.109:8107 47.93.233.156:8107 47.95.208.22:8107 39.97.116.162:8107 47.95.141.193:8107</t>
-    </r>
-  </si>
-  <si>
-    <t>蜜蜂网关</t>
-  </si>
-  <si>
-    <t>47.95.170.94:8677</t>
-  </si>
-  <si>
-    <r>
-      <t>39.105.101.223:8677</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>39.105.102.46:8677</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>39.106.189.72:8677</t>
     </r>
   </si>
@@ -1210,6 +1154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>47.94.14.14:8678</t>
     </r>
     <r>
@@ -1240,10 +1190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1268,7 +1218,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,7 +1226,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,7 +1256,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1323,7 +1272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,7 +1302,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,13 +1330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1382,23 +1338,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,9 +1369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,15 +1385,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1458,7 +1407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,13 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,7 +1461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1485,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,85 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,18 +1582,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,17 +1682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,169 +1708,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1932,7 +1881,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1941,31 +1890,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,13 +1926,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1992,27 +1942,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2364,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2415,7 +2365,7 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2432,7 +2382,7 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2441,7 +2391,7 @@
       <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2454,7 +2404,7 @@
       <c r="D5" s="6">
         <v>200</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2471,7 +2421,7 @@
       <c r="D6" s="6">
         <v>200</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2488,7 +2438,7 @@
       <c r="D7" s="6">
         <v>200</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2496,16 +2446,16 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9">
-        <v>200</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2513,16 +2463,16 @@
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
-        <v>200</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="8">
+        <v>200</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2547,16 +2497,16 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
-        <v>200</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="12">
+        <v>200</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2564,7 +2514,7 @@
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2573,7 +2523,7 @@
       <c r="D12" s="6">
         <v>200</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2590,7 +2540,7 @@
       <c r="D13" s="6">
         <v>200</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2598,7 +2548,7 @@
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2607,7 +2557,7 @@
       <c r="D14" s="6">
         <v>200</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="27" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2615,7 +2565,7 @@
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2624,7 +2574,7 @@
       <c r="D15" s="6">
         <v>400</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2632,7 +2582,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2649,7 +2599,7 @@
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2675,7 +2625,7 @@
       <c r="D18" s="6">
         <v>200</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2692,7 +2642,7 @@
       <c r="D19" s="6">
         <v>200</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2700,7 +2650,7 @@
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2709,7 +2659,7 @@
       <c r="D20" s="6">
         <v>200</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2717,7 +2667,7 @@
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2726,7 +2676,7 @@
       <c r="D21" s="6">
         <v>401</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2734,7 +2684,7 @@
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2743,7 +2693,7 @@
       <c r="D22" s="6">
         <v>405</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2760,7 +2710,7 @@
       <c r="D23" s="6">
         <v>200</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="30" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2777,7 +2727,7 @@
       <c r="D24" s="6">
         <v>404</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="30" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2792,7 +2742,7 @@
       <c r="D25" s="6">
         <v>200</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2800,7 +2750,7 @@
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2809,7 +2759,7 @@
       <c r="D26" s="6">
         <v>200</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2817,7 +2767,7 @@
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2826,7 +2776,7 @@
       <c r="D27" s="6">
         <v>200</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2843,7 +2793,7 @@
       <c r="D28" s="19">
         <v>200</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2851,7 +2801,7 @@
       <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2860,7 +2810,7 @@
       <c r="D29" s="6">
         <v>200</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2868,7 +2818,7 @@
       <c r="A30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2877,7 +2827,7 @@
       <c r="D30" s="6">
         <v>200</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2885,7 +2835,7 @@
       <c r="A31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2894,7 +2844,7 @@
       <c r="D31" s="6">
         <v>200</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="33" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2902,7 +2852,7 @@
       <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2911,7 +2861,7 @@
       <c r="D32" s="6">
         <v>200</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="30" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2919,7 +2869,7 @@
       <c r="A33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2928,7 +2878,7 @@
       <c r="D33" s="6">
         <v>200</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2936,16 +2886,16 @@
       <c r="A34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="6">
         <v>200</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2953,7 +2903,7 @@
       <c r="A35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2962,16 +2912,16 @@
       <c r="D35" s="6">
         <v>200</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>111</v>
+      <c r="E35" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" ht="34" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>104</v>
@@ -2979,16 +2929,16 @@
       <c r="D36" s="6">
         <v>200</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>124</v>
+      <c r="E36" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
@@ -2996,16 +2946,16 @@
       <c r="D37" s="6">
         <v>200</v>
       </c>
-      <c r="E37" s="28" t="s">
-        <v>127</v>
+      <c r="E37" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="22" t="s">
         <v>129</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>76</v>
@@ -3014,297 +2964,297 @@
         <v>405</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="23" t="s">
         <v>132</v>
       </c>
+      <c r="B39" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="6">
         <v>200</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="34" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="9">
-        <v>200</v>
-      </c>
-      <c r="E40" s="28" t="s">
+      <c r="C40" s="25" t="s">
         <v>138</v>
+      </c>
+      <c r="D40" s="8">
+        <v>200</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" ht="34" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="24">
+        <v>141</v>
+      </c>
+      <c r="C41" s="25">
         <v>1341</v>
       </c>
-      <c r="D41" s="9">
-        <v>200</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>141</v>
+      <c r="D41" s="8">
+        <v>200</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>404</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>144</v>
+      <c r="E42" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>404</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>147</v>
+      <c r="E43" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3317,7 +3267,7 @@
     <hyperlink ref="B25" r:id="rId2" display="http://cms.baojia.com/backstage-api/bike/getColorList"/>
     <hyperlink ref="B2" r:id="rId3" display="https://me.baojia.com/" tooltip="https://me.baojia.com/"/>
     <hyperlink ref="B30" r:id="rId4" display="http://10.1.11.210:8080/info" tooltip="http://10.1.11.210:8080/info"/>
-    <hyperlink ref="B3" r:id="rId5" display="http://10.1.11.51:8080/index/treadsInfo"/>
+    <hyperlink ref="B3" r:id="rId5" display="http://10.1.11.51:8080/index/treadsInfo" tooltip="http://10.1.11.51:8080/index/treadsInfo"/>
     <hyperlink ref="B21" r:id="rId6" display="http://10.1.11.23:7001" tooltip="http://10.1.11.23:7001"/>
     <hyperlink ref="B22" r:id="rId7" display="http://dl.baojia.com/auth-api/sys/login"/>
     <hyperlink ref="B13" r:id="rId8" display="http://me.baojia.com/pmall/allProduct"/>
@@ -3340,6 +3290,10 @@
     <hyperlink ref="B33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
     <hyperlink ref="E33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
     <hyperlink ref="E30" r:id="rId4" display="http://10.1.11.210:8080/info"/>
+    <hyperlink ref="B35" r:id="rId26" display="http://10.1.11.160:8081/cat/r"/>
+    <hyperlink ref="B32" r:id="rId27" display="http://wechat.baojia.com/zhanggui-java/auth"/>
+    <hyperlink ref="B31" r:id="rId28" display="http://me.baojia.com/join/get/joinProduct"/>
+    <hyperlink ref="B34" r:id="rId29" display="http://pj.baojia.com/bikeparts-api/common/getBikeModelList" tooltip="http://pj.baojia.com/bikeparts-api/common/getBikeModelList"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/bin/urls_alone.xlsx
+++ b/bin/urls_alone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17080"/>
+    <workbookView windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>业务名称</t>
   </si>
@@ -1180,6 +1180,15 @@
       </rPr>
       <t>47.94.147.183:8678</t>
     </r>
+  </si>
+  <si>
+    <t>cmdb测试</t>
+  </si>
+  <si>
+    <t>10.1.11.57</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2314,8 +2323,8 @@
   <sheetPr/>
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3052,209 +3061,221 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="1" t="s">
+    <row r="44" ht="17" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>149</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="8">
+        <v>200</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/bin/urls_alone.xlsx
+++ b/bin/urls_alone.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>业务名称</t>
   </si>
@@ -33,6 +33,9 @@
     <t>RS</t>
   </si>
   <si>
+    <t>返回类型</t>
+  </si>
+  <si>
     <t>bike-bike</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>10.1.11.140:8080 10.1.11.220:8080 10.1.11.221:8080</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <r>
@@ -427,6 +433,9 @@
     <t>10.1.11.24:8060</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>web前端 蜜步换电官网</t>
   </si>
   <si>
@@ -567,6 +576,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.1.11.145:8091</t>
     </r>
     <r>
@@ -593,6 +608,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.1.11.58:8080</t>
     </r>
     <r>
@@ -671,19 +692,19 @@
     <t>python判断返回的任一字段值</t>
   </si>
   <si>
-    <t>10.1.11.72:8091</t>
+    <t xml:space="preserve">10.1.11.58:8080/nodeInf </t>
   </si>
   <si>
     <t>蜜蜂电池分发存储81</t>
   </si>
   <si>
-    <t>http://10.1.11.27:8081/nodeInf</t>
+    <t>http://10.1.11.217:8081/nodeInf</t>
   </si>
   <si>
     <t>是否为空</t>
   </si>
   <si>
-    <t>10.1.11.216:8077</t>
+    <t>10.1.11.217:8080/nodeInf</t>
   </si>
   <si>
     <t>蜜蜂分发存储</t>
@@ -702,6 +723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.1.11.90:8791</t>
     </r>
     <r>
@@ -1188,7 +1215,7 @@
     <t>10.1.11.57</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>登录蜜步运维平台</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1199,9 +1226,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1227,7 +1254,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,7 +1262,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,29 +1307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1318,14 +1322,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,6 +1346,52 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,22 +1413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1378,23 +1420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1416,18 +1443,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1440,7 +1455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1479,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,85 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,43 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,54 +1666,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,155 +1710,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,9 +1917,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,27 +1929,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1935,15 +1948,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1962,9 +1968,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2321,13 +2324,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.625" customWidth="1"/>
     <col min="2" max="2" width="80.5" customWidth="1"/>
@@ -2336,7 +2339,7 @@
     <col min="5" max="5" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:5">
+    <row r="1" ht="45" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2352,930 +2355,1026 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="17" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="17" spans="1:5">
+      <c r="D2" s="5">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6">
-        <v>200</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="17" spans="1:5">
+    </row>
+    <row r="4" ht="17" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
-        <v>200</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="B4" t="s">
         <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>200</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="17" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>200</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="17" spans="1:5">
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>200</v>
-      </c>
-      <c r="E7" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" ht="17" spans="1:5">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8">
-        <v>200</v>
-      </c>
-      <c r="E8" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="17" spans="1:5">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>200</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="17" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8">
-        <v>200</v>
-      </c>
-      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="17" spans="1:5">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>200</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
         <v>1341</v>
       </c>
-      <c r="D10" s="6">
-        <v>200</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:5">
+      <c r="D10" s="5">
+        <v>200</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12">
-        <v>200</v>
-      </c>
-      <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" ht="17" spans="1:5">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>200</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>200</v>
-      </c>
-      <c r="E12" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" ht="17" spans="1:5">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>200</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>200</v>
-      </c>
-      <c r="E13" s="27" t="s">
         <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6">
-        <v>200</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="B14" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5">
+        <v>200</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="6">
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5">
         <v>400</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:5">
+      <c r="E15" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6">
-        <v>200</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" ht="17" spans="1:5">
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5">
+        <v>200</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6">
-        <v>200</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:5">
+    </row>
+    <row r="18" ht="17" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6">
-        <v>200</v>
-      </c>
-      <c r="E18" s="30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" ht="17" spans="1:5">
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5">
+        <v>200</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6">
-        <v>200</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>200</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="6">
-        <v>200</v>
-      </c>
-      <c r="E20" s="30" t="s">
         <v>69</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="5">
+        <v>200</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="6">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5">
         <v>401</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>73</v>
+      <c r="E21" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="6">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5">
         <v>405</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:5">
+      <c r="E22" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="6">
-        <v>200</v>
-      </c>
-      <c r="E23" s="30" t="s">
         <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="6">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5">
         <v>404</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:5">
+      <c r="E24" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6">
-        <v>200</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6">
-        <v>200</v>
-      </c>
-      <c r="E26" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" ht="17" spans="1:5">
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
+        <v>200</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="6">
-        <v>200</v>
-      </c>
-      <c r="E27" s="30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" ht="17" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="C27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D27" s="5">
+        <v>200</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="19">
-        <v>200</v>
-      </c>
-      <c r="E28" s="30" t="s">
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:6">
+      <c r="A28" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" ht="17" spans="1:5">
+      <c r="B28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="15">
+        <v>200</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="6">
-        <v>200</v>
-      </c>
-      <c r="E29" s="30" t="s">
         <v>101</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="5">
+        <v>200</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="6">
-        <v>200</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="5">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="6">
-        <v>200</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5">
+        <v>200</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="6">
-        <v>200</v>
-      </c>
-      <c r="E32" s="30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" ht="34" spans="1:5">
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5">
+        <v>200</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="6">
-        <v>200</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="5">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="6">
-        <v>200</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" ht="17" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="5">
+        <v>200</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="6">
-        <v>200</v>
-      </c>
-      <c r="E35" s="27" t="s">
         <v>122</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="5">
+        <v>200</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="34" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="6">
-        <v>200</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" ht="17" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="5">
+        <v>200</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" ht="17" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="6">
-        <v>200</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5">
+        <v>200</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="6">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="5">
         <v>405</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" ht="17" spans="1:5">
+      <c r="E38" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="6">
-        <v>200</v>
-      </c>
-      <c r="E39" s="5" t="s">
         <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="5">
+        <v>200</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" ht="34" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="8">
-        <v>200</v>
-      </c>
-      <c r="E40" s="30" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" ht="34" spans="1:5">
+      <c r="B40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="7">
+        <v>200</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" ht="34" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="25">
+        <v>143</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="18">
         <v>1341</v>
       </c>
-      <c r="D41" s="8">
-        <v>200</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>142</v>
+      <c r="D41" s="7">
+        <v>200</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="8">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="7">
         <v>404</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>145</v>
+      <c r="E42" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="8">
+        <v>149</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="7">
         <v>404</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" ht="17" spans="1:5">
+      <c r="E43" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="8">
-        <v>200</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7">
+        <v>200</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3284,37 +3383,18 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="http://10.1.11.31:8080/#/dashboard"/>
-    <hyperlink ref="B26" r:id="rId2" display="http://cms.baojia.com/backstage-api/bike/getColorList" tooltip="http://cms.baojia.com/backstage-api/bike/getColorList"/>
-    <hyperlink ref="B25" r:id="rId2" display="http://cms.baojia.com/backstage-api/bike/getColorList"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://me.baojia.com/" tooltip="https://me.baojia.com/"/>
-    <hyperlink ref="B30" r:id="rId4" display="http://10.1.11.210:8080/info" tooltip="http://10.1.11.210:8080/info"/>
-    <hyperlink ref="B3" r:id="rId5" display="http://10.1.11.51:8080/index/treadsInfo" tooltip="http://10.1.11.51:8080/index/treadsInfo"/>
-    <hyperlink ref="B21" r:id="rId6" display="http://10.1.11.23:7001" tooltip="http://10.1.11.23:7001"/>
-    <hyperlink ref="B22" r:id="rId7" display="http://dl.baojia.com/auth-api/sys/login"/>
-    <hyperlink ref="B13" r:id="rId8" display="http://me.baojia.com/pmall/allProduct"/>
-    <hyperlink ref="B28" r:id="rId9" display="http://10.1.11.58:8080/nodeInf" tooltip="http://10.1.11.58:8080/nodeInf"/>
-    <hyperlink ref="B29" r:id="rId10" display="http://10.1.11.27:8081/nodeInf" tooltip="http://10.1.11.27:8081/nodeInf"/>
-    <hyperlink ref="B39" r:id="rId11" display="http://jk.baojia.com/monitor/bike/getBrandList" tooltip="http://jk.baojia.com/monitor/bike/getBrandList"/>
-    <hyperlink ref="B38" r:id="rId12" display="http://creditcrc.baojia.com/crc/verifyIdCardInfo"/>
-    <hyperlink ref="B9" r:id="rId13" display="http://www.ht.meboth.com/backstage-cupboard-api/sys/index" tooltip="http://www.ht.meboth.com/backstage-cupboard-api/sys/index"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://static.meboth.cn/xiaomi/metripapp/20180913/rule.html" tooltip="http://static.meboth.cn/xiaomi/metripapp/20180913/rule.html"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://www.hd.meboth.com" tooltip="http://www.hd.meboth.com"/>
-    <hyperlink ref="B20" r:id="rId16" display="http://10.1.11.16:8070/signin" tooltip="http://10.1.11.16:8070/signin"/>
-    <hyperlink ref="B27" r:id="rId17" display="http://rider.baojia.com/backstage-company-api/companyusers/list"/>
-    <hyperlink ref="B4" r:id="rId18" display="http://me.baojia.com/bike/search/adCode?latitude=39&amp;longitude=116" tooltip="http://me.baojia.com/bike/search/adCode?latitude=39&amp;longitude=116"/>
-    <hyperlink ref="B6" r:id="rId19" display="http://me.baojia.com/bike/get/joinProduct?joinYear=1" tooltip="http://me.baojia.com/bike/get/joinProduct?joinYear=1"/>
-    <hyperlink ref="B15" r:id="rId20" display="http://duanxin.baojia.com/sms/sendMsg"/>
-    <hyperlink ref="B7" r:id="rId21" display="https://me.baojia.com/bike/about/us?appFrom=1" tooltip="https://me.baojia.com/bike/about/us?appFrom=1"/>
-    <hyperlink ref="B36" r:id="rId22" display="http://distribute.baojia.com/info"/>
-    <hyperlink ref="B11" r:id="rId23" display="https://batops.baojia.com/operation/battery/model/list"/>
-    <hyperlink ref="B12" r:id="rId24" display="http://hrms.meboth.com/hrms-api/position/getPositionNameList"/>
-    <hyperlink ref="B33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
-    <hyperlink ref="E33" r:id="rId25" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob" tooltip="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
-    <hyperlink ref="E30" r:id="rId4" display="http://10.1.11.210:8080/info"/>
-    <hyperlink ref="B35" r:id="rId26" display="http://10.1.11.160:8081/cat/r"/>
-    <hyperlink ref="B32" r:id="rId27" display="http://wechat.baojia.com/zhanggui-java/auth"/>
-    <hyperlink ref="B31" r:id="rId28" display="http://me.baojia.com/join/get/joinProduct"/>
-    <hyperlink ref="B34" r:id="rId29" display="http://pj.baojia.com/bikeparts-api/common/getBikeModelList" tooltip="http://pj.baojia.com/bikeparts-api/common/getBikeModelList"/>
+    <hyperlink ref="B15" r:id="rId2" display="http://duanxin.baojia.com/sms/sendMsg"/>
+    <hyperlink ref="B20" r:id="rId3" display="http://10.1.11.16:8070/signin"/>
+    <hyperlink ref="B16" r:id="rId4" display="http://static.meboth.cn/xiaomi/metripapp/20180913/rule.html"/>
+    <hyperlink ref="B17" r:id="rId5" display="http://www.hd.meboth.com" tooltip="http://www.hd.meboth.com"/>
+    <hyperlink ref="B21" r:id="rId6" display="http://10.1.11.23:7001"/>
+    <hyperlink ref="B28" r:id="rId7" display="http://10.1.11.58:8080/nodeInf"/>
+    <hyperlink ref="B29" r:id="rId8" display="http://10.1.11.217:8081/nodeInf"/>
+    <hyperlink ref="B27" r:id="rId9" display="http://rider.baojia.com/backstage-company-api/companyusers/list"/>
+    <hyperlink ref="B30" r:id="rId10" display="http://10.1.11.210:8080/info"/>
+    <hyperlink ref="B33" r:id="rId11" display="http://10.1.11.166:8899/api/jobs/config/baojia.task.RentOrderIllegalDataflowJob"/>
+    <hyperlink ref="B35" r:id="rId12" display="http://10.1.11.160:8081/cat/r"/>
+    <hyperlink ref="B36" r:id="rId13" display="http://distribute.baojia.com/info"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
